--- a/Counterchamps.xlsx
+++ b/Counterchamps.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar Corchado\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar Corchado\Desktop\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AFD923-4E7B-41EB-99B4-E6BDAC9168C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023381A1-9AB7-40CE-918A-2F57784E8F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A11082F3-2E36-480E-A5DE-7AE118F3C471}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A11082F3-2E36-480E-A5DE-7AE118F3C471}"/>
   </bookViews>
   <sheets>
     <sheet name="TOP" sheetId="1" r:id="rId1"/>
     <sheet name="MID" sheetId="2" r:id="rId2"/>
     <sheet name="JG" sheetId="3" r:id="rId3"/>
+    <sheet name="ADC" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="151">
   <si>
     <t>CAMPEON</t>
   </si>
@@ -481,6 +481,15 @@
   </si>
   <si>
     <t>LEE SEN</t>
+  </si>
+  <si>
+    <t>APHELIOS</t>
+  </si>
+  <si>
+    <t>MISS FORTUNE</t>
+  </si>
+  <si>
+    <t>JINX</t>
   </si>
 </sst>
 </file>
@@ -2681,7 +2690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302F8872-4E3D-4811-9838-6513FA6E01C7}">
   <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -2884,4 +2893,34 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0171B387-A7A3-45FE-B0C2-316832239949}">
+  <dimension ref="B3:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Counterchamps.xlsx
+++ b/Counterchamps.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar Corchado\Desktop\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023381A1-9AB7-40CE-918A-2F57784E8F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB35B901-5B22-4789-88C6-24FCC296BBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A11082F3-2E36-480E-A5DE-7AE118F3C471}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{A11082F3-2E36-480E-A5DE-7AE118F3C471}"/>
   </bookViews>
   <sheets>
     <sheet name="TOP" sheetId="1" r:id="rId1"/>
     <sheet name="MID" sheetId="2" r:id="rId2"/>
     <sheet name="JG" sheetId="3" r:id="rId3"/>
     <sheet name="ADC" sheetId="4" r:id="rId4"/>
+    <sheet name="SUP" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="154">
   <si>
     <t>CAMPEON</t>
   </si>
@@ -490,6 +491,15 @@
   </si>
   <si>
     <t>JINX</t>
+  </si>
+  <si>
+    <t>JANNA</t>
+  </si>
+  <si>
+    <t>SORAKA</t>
+  </si>
+  <si>
+    <t>YUMI</t>
   </si>
 </sst>
 </file>
@@ -2899,7 +2909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0171B387-A7A3-45FE-B0C2-316832239949}">
   <dimension ref="B3:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2923,4 +2933,44 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1395EF-A8CE-4D00-9D73-8F8DE16C698F}">
+  <dimension ref="B3:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>